--- a/Documentazione generale/Change Request Reengineering/Matrice di Connettivita 2.xlsx
+++ b/Documentazione generale/Change Request Reengineering/Matrice di Connettivita 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\Evoluzione-cASpER\Documentazione generale\Change Request Reengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC88295-ACB7-4DAC-B926-807A723FC8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5669164B-D931-4100-8B3D-CE54FBCF5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>SLO0</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>SLO10</t>
+  </si>
+  <si>
+    <t>SLO11</t>
   </si>
 </sst>
 </file>
@@ -375,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +420,14 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -431,7 +443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -439,7 +451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -447,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -455,7 +467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -463,12 +475,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -476,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -484,9 +496,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
